--- a/DesignAndExecution/Casos de pruebas.xlsx
+++ b/DesignAndExecution/Casos de pruebas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\OneDrive\Escritorio\Punto Singular\Proyecto Plan de Pruebas\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F05B830-A234-4110-9F8A-2208F91FCDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA43E7B-107F-42C4-999A-CF6619C54D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>Identificador</t>
   </si>
@@ -81,16 +81,6 @@
     <t>CP4</t>
   </si>
   <si>
-    <t>1. Se debe mostrar la interfaz de subir imagen de mascota. 2. Si la petición es correcta se debe mostrar status code 200 con la siguiente respuesta {
-  "code": 0,
-  "type": "string",
-  "message": "string"
-} 3. Seleccionar la imagen con formato correspondiente 4 y 5. Finalizair el proceso y corroborar que se realizó correctamente</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de subir imagen de mascota. 2. A la hora de validar ese campo debe de mandar un pequeño mensaje diciendo que este campo es válido. 3. Seleccionar la imagen con formato correspondiente 4 y 5. Finalizair el proceso y corroborar que se realizó correctamente</t>
-  </si>
-  <si>
     <t>CP5</t>
   </si>
   <si>
@@ -115,13 +105,7 @@
     <t>CP8</t>
   </si>
   <si>
-    <t>Que se introduzca el id con números enteros</t>
-  </si>
-  <si>
     <t>1. Se debe mostrar la interfaz de Actualziar información de una mascota. 2. A la hora de validar ese campo debe de mandar un pequeño mensaje diciendo que este campo es válido 3. Seleccionar la imagen con formato correspondiente 4 y 5. Finalizair el proceso y corroborar que se realizó correctamente</t>
-  </si>
-  <si>
-    <t>Que se introduzca la petición correctamente.</t>
   </si>
   <si>
     <t>CP9</t>
@@ -159,35 +143,14 @@
 2. Llena los datos de manera tal que el petId solo debe ser un número entero                                                          3. Subir imagen (photoUrls: urls con las fotos de las mascota - string)                                     4. Click en el botón de continuar.        5. Clic en el botón de finalizar</t>
   </si>
   <si>
-    <t>1. Se debe mostrar la interfaz de subir imagen de mascota. 2. Si algún valor no es valido se debe mostrar status code 405 invalid input. 3. Seleccionar la imagen con formato correspondiente.</t>
-  </si>
-  <si>
-    <t>Que se introduzca algún valor inválido (Algún campo vacío o el petId que tenga caracteres "a-z")</t>
-  </si>
-  <si>
     <t>1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet.
 2. Llena los datos con algún campo vacío y/o el petId tenga caracteres "a-z"                                                             3. Subir imagen (photoUrls: urls con las fotos de las mascota - string)                                 4.Poner el status de la mascota                                     5. Click en el botón de continuar.        6. Clic en el botón de finalizar</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de subir imagen de mascota. 2. Si petId no es valido se debe mostrar status code 400 Pet not found. 3. Subir la foto mediante el URL. 4 y 5.  Manda el mensaje diciendo que fueron inválido los campos.</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de Actualizar información de una mascota. 2. Si algún valor no es valido se debe mostrar status code 405 invalid input.    3. Subir la foto mediante el URL. 4 y 5. Manda el mensaje diciendo que fueron inválido los campos.</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de Actualizar información de una mascota 2. Si la petición es correcta se debe mostrar status code 200 con la info de la mascota actualizada 3. Seleccionar la imagen con formato correspondiente, 4. status: estado de la mascota (available - pending - sold) - string 5 y 6. Finalizair el proceso y corroborar que se realizó correctamente</t>
   </si>
   <si>
     <t>Filtrar mascotas por status</t>
   </si>
   <si>
     <t>Buscar mascotas que están disponibles, pendientes o vendidas.</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de Filtrar mascotas por status. 2. Si el estado es incorrecto se debe mostrar status code 400 invalid status value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Se debe mostrar la interfaz de Filtrar mascotas por status. 2. Si la petición es correcta se debe mostrar status code 200 con un listado de las mascotas que coinciden con el estado </t>
   </si>
   <si>
     <t>CP11</t>
@@ -205,9 +168,6 @@
     <t>CP14</t>
   </si>
   <si>
-    <t>1. Se debe mostrar la interfaz de Filtrar mascotas por ID. 2. Si los valores del ID son solo números enteros, este campo se tomará como válido y procederá en la búsqueda</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
 2. El petId solo debe ser un número entero                                                         3. Click en el botón de continuar búsqueda.                                                        </t>
   </si>
@@ -220,25 +180,14 @@
 2. findByStatus: estado de la mascota (available - pending - sold) - string. Mandando un valor incorrecto ya sea con números o un valor vacío.            3. Click en el botón de continuar búsqueda.                                                         </t>
   </si>
   <si>
-    <t>1. Se debe mostrar la interfaz de Filtrar mascotas por ID. 2. Si la petición es correcta se debe mostrar status code 200 con la mascota buscada, este campo se tomará como válido y procederá en la búsqueda</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
 2. El campo pedId se llenará con el dato: 'vacío' o 'caracteres'                                                         3. Click en el botón de continuar búsqueda.                                                        </t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de Filtrar mascotas por ID. 2. Si petId no es valido se debe mostrar status code 400 Pet not found, este campo se tomará como inválido y se cancelará la búsqueda.</t>
   </si>
   <si>
     <t>CP15</t>
   </si>
   <si>
     <t>[Backend] Actualizar una mascota en la tienda con datos de formulario</t>
-  </si>
-  <si>
-    <t>petId: identificador de la mascota - number (Tiene que ser número entero)
-- name: Nombre de la mascota - string (cadena de caracteres)
-- status: estado de la mascota (available, pending o sold) - string</t>
   </si>
   <si>
     <t>Como dueño de la mascota queiro actualizar datos para tener información actualizada.</t>
@@ -275,67 +224,11 @@
 2. Se seleccionará la mascota la cual se quiere eliminar usando el petId del mismo (número entero).                                                        3. Click en el botón de Eliminar mascota.                                                        </t>
   </si>
   <si>
-    <t>1. Se debe mostrar la interfaz de Actualizar una mascota. 2. Si algún valor no es valido se debe mostrar status code 405 invalid input haciendo que este cancele la actualización</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de Actualizar una mascota. 2. Si petId no es valido se debe mostrar status code 400 Pet not found haciendo que este cancele la actualización</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de Actualizar una mascota. 2. Si la petición es correcta se debe mostrar status code 200 con la info de la mascota actualizada 3. Se procede a actualziar los datos</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de Eliminar mascota. 2. El petId solo debe ser un número entero y Si la petición es correcta se debe mostrar status code 200 eliminando la mascota. 3. Procede a eliminar la mascota seleccionada.</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar la interfaz de Eliminar mascota. 2. Si petId no es valido se debe mostrar status code 400 Pet not found, haciendo que esto proceda a cancelar la eliminación.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clicurl** /pet/{petId} usando el método Metodo DELETE
 2. Se seleccionará la mascota la cual se quiere eliminar usando el petId del mismo (usando una cadena ya se por medio del nombre de la mascota o no seleccionar laguna mascota).                                                        3. Click en el botón de Eliminar mascota.                                                        </t>
   </si>
   <si>
     <t>CP19</t>
-  </si>
-  <si>
-    <t>Ser Administrador introduzca caracteres en el campo de petId</t>
-  </si>
-  <si>
-    <t>Que el Administrador introduzca todos los valore correctos</t>
-  </si>
-  <si>
-    <t>Ser Administrador e introducir valores inválidos</t>
-  </si>
-  <si>
-    <t>Al agregar una nueva mascota, debe arrojar el status, para esto se tiene que ser administrador</t>
-  </si>
-  <si>
-    <t>Ser administrador y que se introduzca valores inválidos</t>
-  </si>
-  <si>
-    <t>Que se introduzca el petId inválido siendo un administrador</t>
-  </si>
-  <si>
-    <t>Ser un administrador y solo se debe buscar por las siguientes opciones: Available, pending, sold. Mandar un status correcto</t>
-  </si>
-  <si>
-    <t>Ser un administrador y solo se debe buscar por las siguientes opciones: Available, pending, sold. Mandar un status incorrecto</t>
-  </si>
-  <si>
-    <t>ser un administrador y solo se debe buscar por las siguientes opciones: petId: identificador de la mascota - number.</t>
-  </si>
-  <si>
-    <t>ser un administrador y solo se debe buscar por las siguientes opciones: petId: identificador de la mascota - valor inválido ('vacío', 'caracteres')</t>
-  </si>
-  <si>
-    <t>Ser un administrador e introducir los sisguenetes valores petId: identificador de la mascota - number (Tiene que ser número entero)
-- name: Nombre de la mascota - string (cadena de caracteres)
-- status: estado de la mascota (available, pending o sold) - string</t>
-  </si>
-  <si>
-    <t>Ser un administrador e introducir los sisguenetes valores petId: identificador de la mascota - number, String, vacío</t>
-  </si>
-  <si>
-    <t>Ser un administrador e introducir los sisguenetes valores petId: identificador de la mascota - number (Tiene que ser número entero)</t>
   </si>
   <si>
     <t>Miguel H</t>
@@ -344,13 +237,64 @@
     <t>IN PROGRESS</t>
   </si>
   <si>
-    <t>Ser Administrador e introduzca sólo números enteros en la parte del petId</t>
+    <t>Tener instalado postman y configurar las variables de entorno.</t>
   </si>
   <si>
-    <t>1. Se debe mostrar la interfaz de subir imagen de mascota. 2. A la hora de validar ese campo debe mandar un mensaje o una advertencia diciendo que este campo es incorrecto, favor de poner números enteros, debe mostrar status code 400 Pet not found. Haciendo que este proceso se cancele.</t>
+    <t>3. Si petId no es valido se debe mostrar status code 400 Pet not found, haciendo que esto proceda a cancelar la eliminación.</t>
   </si>
   <si>
-    <t>1. Se debe mostrar la interfaz de subir imagen de mascota. 2. Si algún valor no es valido se debe mostrar status code 405 invalid input. Hace que todo el proceso sea cancelado para que introduzca datos correctos nuevamente</t>
+    <t>3. El petId solo debe ser un número entero y Si la petición es correcta se debe mostrar status code 200 eliminando la mascota, Procede a eliminar la mascota seleccionada.</t>
+  </si>
+  <si>
+    <t>3. Si algún valor no es valido se debe mostrar status code 405 invalid input haciendo que este cancele la actualización</t>
+  </si>
+  <si>
+    <t>3. Si petId no es valido se debe mostrar status code 400 Pet not found haciendo que este cancele la actualización</t>
+  </si>
+  <si>
+    <t>3. Si la petición es correcta se debe mostrar status code 200 con la info de la mascota actualizada, Se procede a actualziar los datos</t>
+  </si>
+  <si>
+    <t>3. Si petId no es valido se debe mostrar status code 400 Pet not found, este campo se tomará como inválido y se cancelará la búsqueda.</t>
+  </si>
+  <si>
+    <t>3. Si la petición es correcta se debe mostrar status code 200 con la mascota buscada, este campo se tomará como válido y procederá en la búsqueda</t>
+  </si>
+  <si>
+    <t>3. Si los valores del ID son solo números enteros, este campo se tomará como válido y procederá en la búsqueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Si la petición es correcta se debe mostrar status code 200 con un listado de las mascotas que coinciden con el estado </t>
+  </si>
+  <si>
+    <t>3. Si el estado es incorrecto se debe mostrar status code 400 invalid status value.</t>
+  </si>
+  <si>
+    <t>5. Manda el mensaje diciendo que fueron inválido los campos  mostrando el status code 405 invalid input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.  Manda el mensaje diciendo que fueron inválido los campos mostrando el status code 400 Pet not found. </t>
+  </si>
+  <si>
+    <t>6. Finalizair el proceso y corroborar que se realizó correctamente mostrando el status code 200 con la info de la mascota actualizada</t>
+  </si>
+  <si>
+    <t>4. Al finalizar debe mostrar status code 405 invalid input</t>
+  </si>
+  <si>
+    <t>5. A la hora de validar ese campo debe de mandar un pequeño mensaje diciendo que este campo es válido.  Finalizair el proceso y corroborar que se realizó correctamente</t>
+  </si>
+  <si>
+    <t>4. Se debe mostrar status code 405 invalid input. Hace que todo el proceso sea cancelado para que introduzca datos correctos nuevamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Debe mostrar status code 400 Pet not found. </t>
+  </si>
+  <si>
+    <t>5. Finalizair el proceso y corroborar que se realizó correctamente mandando un mensaje del status code 200 OK.</t>
+  </si>
+  <si>
+    <t>5. Finalizair el proceso y corroborar que se realizó correctamente mandando status code 200 OK.</t>
   </si>
 </sst>
 </file>
@@ -688,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:AB1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -852,19 +796,19 @@
         <v>11</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -895,22 +839,22 @@
         <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -932,7 +876,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="198" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>13</v>
@@ -944,19 +888,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -990,19 +934,19 @@
         <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1057,28 +1001,28 @@
     <row r="10" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1103,28 +1047,28 @@
     <row r="11" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1179,28 +1123,28 @@
     <row r="13" spans="1:28" ht="198" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="H13" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1225,28 +1169,28 @@
     <row r="14" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1271,28 +1215,28 @@
     <row r="15" spans="1:28" ht="158.4" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1317,28 +1261,28 @@
     <row r="16" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1396,25 +1340,25 @@
         <v>8</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1439,28 +1383,28 @@
     <row r="19" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A19" s="1"/>
       <c r="B19" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1515,28 +1459,28 @@
     <row r="21" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1561,28 +1505,28 @@
     <row r="22" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1607,28 +1551,28 @@
     <row r="23" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="G23" s="10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1680,31 +1624,31 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:28" ht="198" x14ac:dyDescent="0.7">
       <c r="A25" s="1"/>
       <c r="B25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1729,28 +1673,28 @@
     <row r="26" spans="1:28" ht="198" x14ac:dyDescent="0.7">
       <c r="A26" s="1"/>
       <c r="B26" s="10" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1775,28 +1719,28 @@
     <row r="27" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1851,28 +1795,28 @@
     <row r="29" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A29" s="1"/>
       <c r="B29" s="10" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1897,28 +1841,28 @@
     <row r="30" spans="1:28" ht="237.6" x14ac:dyDescent="0.7">
       <c r="A30" s="1"/>
       <c r="B30" s="10" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>

--- a/DesignAndExecution/Casos de pruebas.xlsx
+++ b/DesignAndExecution/Casos de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\OneDrive\Escritorio\Punto Singular\Proyecto Plan de Pruebas\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA43E7B-107F-42C4-999A-CF6619C54D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB8EC14-193A-46A3-B0F3-A4DE4FC2268F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
   <si>
     <t>Identificador</t>
   </si>
@@ -111,10 +111,6 @@
     <t>CP9</t>
   </si>
   <si>
-    <t>1. Ir a la opción de Subir Imagen y hacer clic.
-2. Llena los datos necesarios.                              3. Subir imagen                                         4. Click en el botón de continuar.        5. Clic en el botón de finalizar</t>
-  </si>
-  <si>
     <t>1. Ir a la opción de Subir Imagen y hacer clic (url** /pet/{petId}/uploadImage).
 2. Llena el identificador con diferentes caracteres (12345).                                   3. Subir imagen                                        4. Click en el botón de continuar.        5. Clic en el botón de finalizar</t>
   </si>
@@ -168,20 +164,12 @@
     <t>CP14</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
-2. El petId solo debe ser un número entero                                                         3. Click en el botón de continuar búsqueda.                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/findByStatus
 2. findByStatus: estado de la mascota (available - pending - sold) - string. 3. Click en el botón de continuar búsqueda.                                                     </t>
   </si>
   <si>
     <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/findByStatus
 2. findByStatus: estado de la mascota (available - pending - sold) - string. Mandando un valor incorrecto ya sea con números o un valor vacío.            3. Click en el botón de continuar búsqueda.                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
-2. El campo pedId se llenará con el dato: 'vacío' o 'caracteres'                                                         3. Click en el botón de continuar búsqueda.                                                        </t>
   </si>
   <si>
     <t>CP15</t>
@@ -221,10 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clicurl** /pet/{petId} usando el método Metodo DELETE
-2. Se seleccionará la mascota la cual se quiere eliminar usando el petId del mismo (número entero).                                                        3. Click en el botón de Eliminar mascota.                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clicurl** /pet/{petId} usando el método Metodo DELETE
 2. Se seleccionará la mascota la cual se quiere eliminar usando el petId del mismo (usando una cadena ya se por medio del nombre de la mascota o no seleccionar laguna mascota).                                                        3. Click en el botón de Eliminar mascota.                                                        </t>
   </si>
   <si>
@@ -258,12 +242,6 @@
     <t>3. Si petId no es valido se debe mostrar status code 400 Pet not found, este campo se tomará como inválido y se cancelará la búsqueda.</t>
   </si>
   <si>
-    <t>3. Si la petición es correcta se debe mostrar status code 200 con la mascota buscada, este campo se tomará como válido y procederá en la búsqueda</t>
-  </si>
-  <si>
-    <t>3. Si los valores del ID son solo números enteros, este campo se tomará como válido y procederá en la búsqueda</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Si la petición es correcta se debe mostrar status code 200 con un listado de las mascotas que coinciden con el estado </t>
   </si>
   <si>
@@ -295,6 +273,143 @@
   </si>
   <si>
     <t>5. Finalizair el proceso y corroborar que se realizó correctamente mandando status code 200 OK.</t>
+  </si>
+  <si>
+    <t>1. Ir a la opción de Subir Imagen y hacer clic (url** /pet/{petId}/uploadImage)..
+2. Llena el identificador con diferentes caracteres (mascota12333).                  3. Subir imagen                                            4. Click en el botón de continuar.           5. Clic en el botón de finalizar</t>
+  </si>
+  <si>
+    <t>Validar que los datos de la mascota para subir su imagen sean correctos. El petId tendrá caracteres, no depe pasar de 15 caracteres, tiene que ser  String y numérico</t>
+  </si>
+  <si>
+    <t>Validar que los datos de la mascota para subir su imagen sean correctos. El petId estará vación, sin recibir ningún valor</t>
+  </si>
+  <si>
+    <t>CP20</t>
+  </si>
+  <si>
+    <t>CP21</t>
+  </si>
+  <si>
+    <t>CP22</t>
+  </si>
+  <si>
+    <t>No sobir ninguna imagen, quedando vació en el apartado de subir imagen.</t>
+  </si>
+  <si>
+    <t>1. Ir a la opción de Subir Imagen y hacer clic(url** /pet/{petId}/uploadImage)..
+2. Llena los datos necesarios.                              3. Subir imagen                                         4. Click en el botón de continuar.        5. Clic en el botón de finalizar</t>
+  </si>
+  <si>
+    <t>1. Ir a la opción de Subir Imagen y hacer clic(url** /pet/{petId}/uploadImage)..
+2. Llena los datos necesarios.                              3. No subir imagen                                         4. Click en el botón de continuar.        5. Clic en el botón de finalizar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Debe mostrar status code 400 Pet not found. Falta subir algún archivo en formato de imagen </t>
+  </si>
+  <si>
+    <t>CP23</t>
+  </si>
+  <si>
+    <t>CP24</t>
+  </si>
+  <si>
+    <t>CP25</t>
+  </si>
+  <si>
+    <t>CP26</t>
+  </si>
+  <si>
+    <t>CP27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clicurl** /pet/{petId} usando el  Metodo DELETE
+2. Se seleccionará la mascota la cual se quiere eliminar usando el petId del mismo (número entero).                                                        3. Click en el botón de Eliminar mascota.                                                        </t>
+  </si>
+  <si>
+    <t>Como administrador quiero eliminar una mascota para depurar la información, no se seleccionará ningun indentificador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clicurl** /pet/{petId} usando el método Metodo DELETE
+2. No se seleccionará alguna mascota                                                      3. Click en el botón de Eliminar mascota.                                                        </t>
+  </si>
+  <si>
+    <t>3. Debe mostrar status code 400 Pet not found.</t>
+  </si>
+  <si>
+    <t>1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet.
+2. No llenar datos, dejándolos de manera vacía                                                           3. No subir ninguna imagen                                 4.Poner el status de la mascota                                     5. Click en el botón de continuar.        6. Clic en el botón de finalizar</t>
+  </si>
+  <si>
+    <t>1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet.
+2. No ingresar datos                                    3. No subir imágen                                    4. Click en el botón de continuar.           5. Clic en el botón de finalizar</t>
+  </si>
+  <si>
+    <t>1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet.
+2. No ingresar datos                                    3. Subir imagen (URL) correctamente                                    4. Click en el botón de continuar.           5. Clic en el botón de finalizar</t>
+  </si>
+  <si>
+    <t>1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet.
+2. Llena los datos necesarios.                 3. Subir imagen (URL) incorrecta                                    4. Click en el botón de continuar.           5. Clic en el botón de finalizar</t>
+  </si>
+  <si>
+    <t>CP28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método Metodo POST
+2. Engresar en la URL un petId no existente con número enteros (12349883)                                                    3. Click en el botón de Actualizar mascota.                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clicurl** /pet/{petId} usando el método Metodo DELETE
+2. ingresar un identificador no existente en la URL petId usando números enteros (123987354)                                                      3. Click en el botón de Eliminar mascota.                                                        </t>
+  </si>
+  <si>
+    <t>CP29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
+2. El campo pedId se llenará con el dato: 'vacío'                                               3. Click en el botón de continuar búsqueda.                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
+2. El campo pedId se llenará con el dato: 'caracters' sin pasar los 10 caracteres                                                 3. Click en el botón de continuar búsqueda.                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
+2. El petId solo debe ser un número entero                                                                       3. Filtrar la búsqueda por "disponibles"                                                         4. Click en el botón de continuar búsqueda.                                                        </t>
+  </si>
+  <si>
+    <t>4. Si los valores del ID son solo números enteros, este campo se tomará como válido y procederá en la búsqueda, debe mostrar status code 200</t>
+  </si>
+  <si>
+    <t>4. Si los valores del ID son solo números enteros, este campo se tomará como válido y procederá en la búsqueda, debe mostrar status code 201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
+2. El petId solo debe ser un número entero                                                                       3. Filtrar la búsqueda por "pendientes"                                                         4. Click en el botón de continuar búsqueda.                                                        </t>
+  </si>
+  <si>
+    <t>4. Si los valores del ID son solo números enteros, este campo se tomará como válido y procederá en la búsqueda, debe mostrar status code 202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
+2. El petId solo debe ser un número entero                                                                       3. Filtrar la búsqueda por "vendidos"                                                         4. Click en el botón de continuar búsqueda.                                                        </t>
+  </si>
+  <si>
+    <t>3. Se debe mostrar status code 400 Pet not found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ir a la opción de Agregar una mascota a la tienda y hacer clic url** /pet/{petId} usando el método GET
+2. El campo pedId se pondrá un identificador no existente, ingresando números aleatorios no más de ocho caracteres usandolo en cualquier de los tres filtros.                                               3. Click en el botón de continuar búsqueda.                                                        </t>
+  </si>
+  <si>
+    <t>CP30</t>
+  </si>
+  <si>
+    <t>CP31</t>
+  </si>
+  <si>
+    <t>CP32</t>
   </si>
 </sst>
 </file>
@@ -630,10 +745,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1002"/>
+  <dimension ref="A1:AB1012"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -796,19 +911,19 @@
         <v>11</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -842,19 +957,19 @@
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -876,7 +991,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="118.8" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>13</v>
@@ -885,22 +1000,22 @@
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -922,7 +1037,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
         <v>15</v>
@@ -931,22 +1046,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -968,16 +1083,32 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1001,28 +1132,28 @@
     <row r="10" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1047,28 +1178,28 @@
     <row r="11" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1120,31 +1251,31 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="198" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1166,31 +1297,31 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1212,31 +1343,31 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="158.4" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1258,31 +1389,31 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1334,31 +1465,31 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:28" ht="198" x14ac:dyDescent="0.7">
       <c r="A18" s="1"/>
       <c r="B18" s="10" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1380,31 +1511,31 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
       <c r="A19" s="1"/>
       <c r="B19" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1426,16 +1557,32 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:28" ht="158.4" x14ac:dyDescent="0.7">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1456,31 +1603,31 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1502,31 +1649,31 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1548,32 +1695,16 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A23" s="1"/>
-      <c r="B23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1594,16 +1725,32 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="B24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1624,31 +1771,31 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="198" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A25" s="1"/>
       <c r="B25" s="10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1670,32 +1817,16 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="198" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A26" s="1"/>
-      <c r="B26" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1716,31 +1847,31 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1762,16 +1893,32 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A28" s="1"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="B28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1792,31 +1939,31 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:28" ht="158.4" x14ac:dyDescent="0.7">
       <c r="A29" s="1"/>
       <c r="B29" s="10" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1838,31 +1985,31 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" ht="237.6" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:28" ht="138.6" x14ac:dyDescent="0.7">
       <c r="A30" s="1"/>
       <c r="B30" s="10" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="I30" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1884,16 +2031,32 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:28" ht="158.4" x14ac:dyDescent="0.7">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1914,16 +2077,32 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:28" ht="198" x14ac:dyDescent="0.7">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1946,14 +2125,14 @@
     </row>
     <row r="33" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1974,16 +2153,32 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:28" ht="198" x14ac:dyDescent="0.7">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="B34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2004,16 +2199,32 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:28" ht="198" x14ac:dyDescent="0.7">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="B35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2034,16 +2245,32 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:28" ht="217.8" x14ac:dyDescent="0.7">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="B36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2064,16 +2291,32 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2096,14 +2339,14 @@
     </row>
     <row r="38" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2124,16 +2367,32 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="B39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2154,16 +2413,32 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:28" ht="237.6" x14ac:dyDescent="0.7">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="B40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2184,16 +2459,32 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:28" ht="158.4" x14ac:dyDescent="0.7">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="B41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2214,16 +2505,32 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:28" ht="178.2" x14ac:dyDescent="0.7">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="B42" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2246,14 +2553,14 @@
     </row>
     <row r="43" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -31044,10 +31351,310 @@
       <c r="AA1002" s="1"/>
       <c r="AB1002" s="1"/>
     </row>
+    <row r="1003" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+      <c r="AA1003" s="1"/>
+      <c r="AB1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+      <c r="AA1004" s="1"/>
+      <c r="AB1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+      <c r="AA1005" s="1"/>
+      <c r="AB1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+      <c r="I1006" s="1"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+      <c r="Z1006" s="1"/>
+      <c r="AA1006" s="1"/>
+      <c r="AB1006" s="1"/>
+    </row>
+    <row r="1007" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="1"/>
+      <c r="I1007" s="1"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="1"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+      <c r="O1007" s="1"/>
+      <c r="P1007" s="1"/>
+      <c r="Q1007" s="1"/>
+      <c r="R1007" s="1"/>
+      <c r="S1007" s="1"/>
+      <c r="T1007" s="1"/>
+      <c r="U1007" s="1"/>
+      <c r="V1007" s="1"/>
+      <c r="W1007" s="1"/>
+      <c r="X1007" s="1"/>
+      <c r="Y1007" s="1"/>
+      <c r="Z1007" s="1"/>
+      <c r="AA1007" s="1"/>
+      <c r="AB1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="1"/>
+      <c r="H1008" s="1"/>
+      <c r="I1008" s="1"/>
+      <c r="J1008" s="1"/>
+      <c r="K1008" s="1"/>
+      <c r="L1008" s="1"/>
+      <c r="M1008" s="1"/>
+      <c r="N1008" s="1"/>
+      <c r="O1008" s="1"/>
+      <c r="P1008" s="1"/>
+      <c r="Q1008" s="1"/>
+      <c r="R1008" s="1"/>
+      <c r="S1008" s="1"/>
+      <c r="T1008" s="1"/>
+      <c r="U1008" s="1"/>
+      <c r="V1008" s="1"/>
+      <c r="W1008" s="1"/>
+      <c r="X1008" s="1"/>
+      <c r="Y1008" s="1"/>
+      <c r="Z1008" s="1"/>
+      <c r="AA1008" s="1"/>
+      <c r="AB1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="1"/>
+      <c r="C1009" s="1"/>
+      <c r="D1009" s="1"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="1"/>
+      <c r="G1009" s="1"/>
+      <c r="H1009" s="1"/>
+      <c r="I1009" s="1"/>
+      <c r="J1009" s="1"/>
+      <c r="K1009" s="1"/>
+      <c r="L1009" s="1"/>
+      <c r="M1009" s="1"/>
+      <c r="N1009" s="1"/>
+      <c r="O1009" s="1"/>
+      <c r="P1009" s="1"/>
+      <c r="Q1009" s="1"/>
+      <c r="R1009" s="1"/>
+      <c r="S1009" s="1"/>
+      <c r="T1009" s="1"/>
+      <c r="U1009" s="1"/>
+      <c r="V1009" s="1"/>
+      <c r="W1009" s="1"/>
+      <c r="X1009" s="1"/>
+      <c r="Y1009" s="1"/>
+      <c r="Z1009" s="1"/>
+      <c r="AA1009" s="1"/>
+      <c r="AB1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="1"/>
+      <c r="H1010" s="1"/>
+      <c r="I1010" s="1"/>
+      <c r="J1010" s="1"/>
+      <c r="K1010" s="1"/>
+      <c r="L1010" s="1"/>
+      <c r="M1010" s="1"/>
+      <c r="N1010" s="1"/>
+      <c r="O1010" s="1"/>
+      <c r="P1010" s="1"/>
+      <c r="Q1010" s="1"/>
+      <c r="R1010" s="1"/>
+      <c r="S1010" s="1"/>
+      <c r="T1010" s="1"/>
+      <c r="U1010" s="1"/>
+      <c r="V1010" s="1"/>
+      <c r="W1010" s="1"/>
+      <c r="X1010" s="1"/>
+      <c r="Y1010" s="1"/>
+      <c r="Z1010" s="1"/>
+      <c r="AA1010" s="1"/>
+      <c r="AB1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="1"/>
+      <c r="H1011" s="1"/>
+      <c r="I1011" s="1"/>
+      <c r="J1011" s="1"/>
+      <c r="K1011" s="1"/>
+      <c r="L1011" s="1"/>
+      <c r="M1011" s="1"/>
+      <c r="N1011" s="1"/>
+      <c r="O1011" s="1"/>
+      <c r="P1011" s="1"/>
+      <c r="Q1011" s="1"/>
+      <c r="R1011" s="1"/>
+      <c r="S1011" s="1"/>
+      <c r="T1011" s="1"/>
+      <c r="U1011" s="1"/>
+      <c r="V1011" s="1"/>
+      <c r="W1011" s="1"/>
+      <c r="X1011" s="1"/>
+      <c r="Y1011" s="1"/>
+      <c r="Z1011" s="1"/>
+      <c r="AA1011" s="1"/>
+      <c r="AB1011" s="1"/>
+    </row>
+    <row r="1012" spans="1:28" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="1"/>
+      <c r="D1012" s="1"/>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="1"/>
+      <c r="G1012" s="1"/>
+      <c r="H1012" s="1"/>
+      <c r="I1012" s="1"/>
+      <c r="J1012" s="1"/>
+      <c r="K1012" s="1"/>
+      <c r="L1012" s="1"/>
+      <c r="M1012" s="1"/>
+      <c r="N1012" s="1"/>
+      <c r="O1012" s="1"/>
+      <c r="P1012" s="1"/>
+      <c r="Q1012" s="1"/>
+      <c r="R1012" s="1"/>
+      <c r="S1012" s="1"/>
+      <c r="T1012" s="1"/>
+      <c r="U1012" s="1"/>
+      <c r="V1012" s="1"/>
+      <c r="W1012" s="1"/>
+      <c r="X1012" s="1"/>
+      <c r="Y1012" s="1"/>
+      <c r="Z1012" s="1"/>
+      <c r="AA1012" s="1"/>
+      <c r="AB1012" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="I2:I16 I18:I1002" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I22 I24:I1012" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
